--- a/02_MasterWifoMannheim/99_Backup/Course39.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course39.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD3D0DB4B639A201159B0103545A9FDBD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{780633B5-FA83-4A58-968E-F375D9300644}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D05905DB9B3611591870B47E77FD7D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BC7F9C0-BD2F-4AC5-9EF9-53D34770AF29}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>Duration of Assessment</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Language</t>
   </si>
   <si>
@@ -112,7 +109,7 @@
     <t>Offering</t>
   </si>
   <si>
-    <t>Fall semester</t>
+    <t>FWS</t>
   </si>
   <si>
     <t>Lecturers</t>
@@ -149,6 +146,9 @@
   </si>
   <si>
     <t>3. Semester</t>
+  </si>
+  <si>
+    <t>SQ 500 Scientific Research</t>
   </si>
 </sst>
 </file>
@@ -205,13 +205,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,9 +519,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="207.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -538,7 +532,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -546,7 +540,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -554,7 +548,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -562,7 +556,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -570,7 +564,7 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -578,7 +572,7 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -586,21 +580,23 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -608,7 +604,7 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -616,7 +612,7 @@
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -624,7 +620,7 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -632,7 +628,7 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
     </row>
@@ -640,78 +636,74 @@
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
         <v>35</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
         <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
